--- a/forecast_summary_B0CNR6L1DH.xlsx
+++ b/forecast_summary_B0CNR6L1DH.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>60.30308927549552</v>
       </c>
       <c r="D2" t="n">
-        <v>73.9082641423161</v>
+        <v>73.81959872158632</v>
       </c>
       <c r="E2" t="n">
         <v>14</v>
@@ -511,6 +516,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" t="n">
         <v>82.18824131099231</v>
       </c>
       <c r="D3" t="n">
-        <v>94.69573120863605</v>
+        <v>95.51297217726</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -547,6 +555,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>81.35524863150128</v>
       </c>
       <c r="D4" t="n">
-        <v>94.02021758705766</v>
+        <v>93.85741200584496</v>
       </c>
       <c r="E4" t="n">
         <v>14</v>
@@ -583,6 +594,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>68.64245643668173</v>
       </c>
       <c r="D5" t="n">
-        <v>81.38918148796783</v>
+        <v>81.2766400944064</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -619,6 +633,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>66.18728483450049</v>
       </c>
       <c r="D6" t="n">
-        <v>79.06637952417192</v>
+        <v>79.26116500748022</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
@@ -655,6 +672,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>82.45020476631316</v>
       </c>
       <c r="D7" t="n">
-        <v>95.71575433505576</v>
+        <v>96.21650377578847</v>
       </c>
       <c r="E7" t="n">
         <v>14</v>
@@ -691,6 +711,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>102.8981760775798</v>
       </c>
       <c r="D8" t="n">
-        <v>116.3090890771079</v>
+        <v>115.3189592438428</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -727,6 +750,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>107.5533180281397</v>
       </c>
       <c r="D9" t="n">
-        <v>121.3371077102731</v>
+        <v>120.2844806558583</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -763,6 +789,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>94.5641961571409</v>
       </c>
       <c r="D10" t="n">
-        <v>107.6053371802365</v>
+        <v>108.1939795338129</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -799,6 +828,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>81.72620964372436</v>
       </c>
       <c r="D11" t="n">
-        <v>93.96686949187402</v>
+        <v>94.29703821046479</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -835,6 +867,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>84.79311368301819</v>
       </c>
       <c r="D12" t="n">
-        <v>97.1915576216024</v>
+        <v>98.54032669891821</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -871,6 +906,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>99.39447516939235</v>
       </c>
       <c r="D13" t="n">
-        <v>112.6869893229692</v>
+        <v>112.650439720177</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -907,6 +945,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>107.8853910882339</v>
       </c>
       <c r="D14" t="n">
-        <v>121.103025532646</v>
+        <v>121.3820205634151</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -943,6 +984,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>101.017792124283</v>
       </c>
       <c r="D15" t="n">
-        <v>113.7512303449164</v>
+        <v>114.0097928097675</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -979,6 +1023,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>86.88983597964069</v>
       </c>
       <c r="D16" t="n">
-        <v>99.4191015795902</v>
+        <v>99.56667223057256</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>77.62048391606582</v>
       </c>
       <c r="D17" t="n">
-        <v>90.33616055319615</v>
+        <v>89.97971010859061</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>73.3218909347646</v>
       </c>
       <c r="D18" t="n">
-        <v>85.9541488153901</v>
+        <v>87.0676488481807</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>65.05809311559025</v>
       </c>
       <c r="D19" t="n">
-        <v>77.42764091707572</v>
+        <v>78.60854502528548</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>51.45318847165338</v>
       </c>
       <c r="D20" t="n">
-        <v>64.66626746435291</v>
+        <v>63.97073160317404</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="n">
         <v>44.14639682433012</v>
       </c>
       <c r="D21" t="n">
-        <v>57.70474585150519</v>
+        <v>57.46776503657253</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t xml:space="preserve">B760M D3H                     </t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1406</t>
+          <t>1407</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>663</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>299</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
     </row>
